--- a/Рознарядка.xlsx
+++ b/Рознарядка.xlsx
@@ -32123,44 +32123,44 @@
       </c>
       <c r="B3" s="27" t="inlineStr">
         <is>
-          <t>Богородчанське ЛВУМГ</t>
+          <t>Бібрське ЛВУМГ</t>
         </is>
       </c>
       <c r="C3" s="27" t="n">
-        <v>11.47</v>
+        <v>11.656</v>
       </c>
       <c r="D3" s="27" t="n">
-        <v>5452</v>
+        <v>2474</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.579</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="F3" s="27" t="n"/>
       <c r="G3" s="27" t="n">
-        <v>4.543</v>
+        <v>2.506</v>
       </c>
       <c r="H3" s="27" t="n">
-        <v>0.836</v>
+        <v>0.9690000000000001</v>
       </c>
       <c r="I3" s="27" t="n">
-        <v>0.23</v>
+        <v>0.295</v>
       </c>
       <c r="J3" s="27" t="n"/>
       <c r="K3" s="27" t="n"/>
       <c r="L3" s="27" t="n">
-        <v>1.448</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="M3" s="27" t="n">
-        <v>1.796</v>
+        <v>1.369</v>
       </c>
       <c r="N3" s="27" t="n">
-        <v>3041</v>
+        <v>2557</v>
       </c>
       <c r="O3" s="27" t="n">
-        <v>1789</v>
+        <v>742</v>
       </c>
       <c r="P3" s="27" t="n">
-        <v>4.02</v>
+        <v>3.756</v>
       </c>
     </row>
     <row r="4">
@@ -32169,44 +32169,44 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>Богородчанське ЛВУМГ (Долинське)</t>
+          <t>Бібрське ЛВУМГ (Рівненське)</t>
         </is>
       </c>
       <c r="C4" s="27" t="n">
-        <v>6.42</v>
+        <v>11.681</v>
       </c>
       <c r="D4" s="27" t="n">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.105</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F4" s="27" t="n"/>
       <c r="G4" s="27" t="n">
-        <v>2.164</v>
+        <v>2.118</v>
       </c>
       <c r="H4" s="27" t="n">
-        <v>0.536</v>
+        <v>1.869</v>
       </c>
       <c r="I4" s="27" t="n">
-        <v>0.226</v>
+        <v>0.263</v>
       </c>
       <c r="J4" s="27" t="n"/>
       <c r="K4" s="27" t="n"/>
       <c r="L4" s="27" t="n">
-        <v>0.4950000000000001</v>
+        <v>4.642999999999999</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0.6930000000000001</v>
+        <v>1.214</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>1412</v>
+        <v>2442.097</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>500</v>
+        <v>1104</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>2.374</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="5">
@@ -32215,44 +32215,44 @@
       </c>
       <c r="B5" s="27" t="inlineStr">
         <is>
-          <t>Боярське ЛВУМГ</t>
+          <t>Богородчанське ЛВУМГ</t>
         </is>
       </c>
       <c r="C5" s="27" t="n">
-        <v>14.367</v>
+        <v>11.47</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>4676</v>
+        <v>5452</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>1.18</v>
+        <v>0.579</v>
       </c>
       <c r="F5" s="27" t="n"/>
       <c r="G5" s="27" t="n">
-        <v>4.721</v>
+        <v>4.543</v>
       </c>
       <c r="H5" s="27" t="n">
-        <v>1.36</v>
+        <v>0.836</v>
       </c>
       <c r="I5" s="27" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="J5" s="27" t="n"/>
       <c r="K5" s="27" t="n"/>
       <c r="L5" s="27" t="n">
-        <v>1.478</v>
+        <v>1.448</v>
       </c>
       <c r="M5" s="27" t="n">
-        <v>2.601</v>
+        <v>1.796</v>
       </c>
       <c r="N5" s="27" t="n">
-        <v>4393</v>
+        <v>3041</v>
       </c>
       <c r="O5" s="27" t="n">
-        <v>1792.07</v>
+        <v>1789</v>
       </c>
       <c r="P5" s="27" t="n">
-        <v>6.631</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="6">
@@ -32261,44 +32261,44 @@
       </c>
       <c r="B6" s="27" t="inlineStr">
         <is>
-          <t>Бібрське ЛВУМГ</t>
+          <t>Богородчанське ЛВУМГ (Долинське)</t>
         </is>
       </c>
       <c r="C6" s="27" t="n">
-        <v>11.656</v>
+        <v>6.42</v>
       </c>
       <c r="D6" s="27" t="n">
-        <v>2474</v>
+        <v>2084</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.8860000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="F6" s="27" t="n"/>
       <c r="G6" s="27" t="n">
-        <v>2.506</v>
+        <v>2.164</v>
       </c>
       <c r="H6" s="27" t="n">
-        <v>0.9690000000000001</v>
+        <v>0.536</v>
       </c>
       <c r="I6" s="27" t="n">
-        <v>0.295</v>
+        <v>0.226</v>
       </c>
       <c r="J6" s="27" t="n"/>
       <c r="K6" s="27" t="n"/>
       <c r="L6" s="27" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.4950000000000001</v>
       </c>
       <c r="M6" s="27" t="n">
-        <v>1.369</v>
+        <v>0.6930000000000001</v>
       </c>
       <c r="N6" s="27" t="n">
-        <v>2557</v>
+        <v>1412</v>
       </c>
       <c r="O6" s="27" t="n">
-        <v>742</v>
+        <v>500</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>3.756</v>
+        <v>2.374</v>
       </c>
     </row>
     <row r="7">
@@ -32307,44 +32307,44 @@
       </c>
       <c r="B7" s="27" t="inlineStr">
         <is>
-          <t>Бібрське ЛВУМГ (Рівненське)</t>
+          <t>Боярське ЛВУМГ</t>
         </is>
       </c>
       <c r="C7" s="27" t="n">
-        <v>11.681</v>
+        <v>14.367</v>
       </c>
       <c r="D7" s="27" t="n">
-        <v>2134</v>
+        <v>4676</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="F7" s="27" t="n"/>
       <c r="G7" s="27" t="n">
-        <v>2.118</v>
+        <v>4.721</v>
       </c>
       <c r="H7" s="27" t="n">
-        <v>1.869</v>
+        <v>1.36</v>
       </c>
       <c r="I7" s="27" t="n">
-        <v>0.263</v>
+        <v>0.47</v>
       </c>
       <c r="J7" s="27" t="n"/>
       <c r="K7" s="27" t="n"/>
       <c r="L7" s="27" t="n">
-        <v>4.642999999999999</v>
+        <v>1.478</v>
       </c>
       <c r="M7" s="27" t="n">
-        <v>1.214</v>
+        <v>2.601</v>
       </c>
       <c r="N7" s="27" t="n">
-        <v>2442.097</v>
+        <v>4393</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>1104</v>
+        <v>1792.07</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>3.892</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="8">

--- a/Рознарядка.xlsx
+++ b/Рознарядка.xlsx
@@ -84,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -237,6 +237,39 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -634,7 +667,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -755,7 +788,7 @@
       <c r="N4" s="12" t="n"/>
       <c r="O4" s="7" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>км</t>
         </is>
       </c>
       <c r="P4" s="3" t="n">
@@ -885,7 +918,11 @@
       <c r="L8" s="11" t="n"/>
       <c r="M8" s="11" t="n"/>
       <c r="N8" s="12" t="n"/>
-      <c r="O8" s="7" t="n"/>
+      <c r="O8" s="7" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
       <c r="P8" s="6" t="n">
         <v>18.222</v>
       </c>
@@ -31890,7 +31927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31956,886 +31993,964 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Бердичівське ЛВУМГ</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>12.245</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n">
-        <v>5.394</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1.051</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1.214</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>2523</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1168</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>3.52</v>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>км</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Бібрське ЛВУМГ</t>
+          <t>Бердичівське ЛВУМГ</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.656</v>
+        <v>12.245</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2474</v>
+        <v>1908</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.8860000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n">
-        <v>2.506</v>
+        <v>5.394</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.9690000000000001</v>
+        <v>1.051</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.295</v>
+        <v>0.303</v>
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.716</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>1.369</v>
+        <v>1.214</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2557</v>
+        <v>2523</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>742</v>
+        <v>1168</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.756</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Бібрське ЛВУМГ (Рівненське)</t>
+          <t>Бібрське ЛВУМГ</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>11.681</v>
+        <v>11.656</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2134</v>
+        <v>2474</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n">
-        <v>2.118</v>
+        <v>2.506</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1.869</v>
+        <v>0.9690000000000001</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.263</v>
+        <v>0.295</v>
       </c>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="n">
-        <v>4.642999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1.214</v>
+        <v>1.369</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2442.097</v>
+        <v>2557</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1104</v>
+        <v>742</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.892</v>
+        <v>3.756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Богородчанське ЛВУМГ</t>
+          <t>Бібрське ЛВУМГ (Рівненське)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>11.47</v>
+        <v>11.681</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5452</v>
+        <v>2134</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.579</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n">
-        <v>4.543</v>
+        <v>2.118</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.836</v>
+        <v>1.869</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.23</v>
+        <v>0.263</v>
       </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n">
-        <v>1.448</v>
+        <v>4.642999999999999</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1.796</v>
+        <v>1.214</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3041</v>
+        <v>2442.097</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1789</v>
+        <v>1104</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.02</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Богородчанське ЛВУМГ (Долинське)</t>
+          <t>Богородчанське ЛВУМГ</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6.42</v>
+        <v>11.47</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2084</v>
+        <v>5452</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.105</v>
+        <v>0.579</v>
       </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n">
-        <v>2.164</v>
+        <v>4.543</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.536</v>
+        <v>0.836</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n">
-        <v>0.4950000000000001</v>
+        <v>1.448</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.6930000000000001</v>
+        <v>1.796</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1412</v>
+        <v>3041</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>500</v>
+        <v>1789</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.374</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Боярське ЛВУМГ</t>
+          <t>Богородчанське ЛВУМГ (Долинське)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>14.367</v>
+        <v>6.42</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4676</v>
+        <v>2084</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.18</v>
+        <v>0.105</v>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n">
-        <v>4.721</v>
+        <v>2.164</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1.36</v>
+        <v>0.536</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.47</v>
+        <v>0.226</v>
       </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n">
-        <v>1.478</v>
+        <v>0.4950000000000001</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>2.601</v>
+        <v>0.6930000000000001</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4393</v>
+        <v>1412</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1792.07</v>
+        <v>500</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.631</v>
+        <v>2.374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Закарпатське ЛВУМГ</t>
+          <t>Боярське ЛВУМГ</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.121</v>
+        <v>14.367</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2571</v>
+        <v>4676</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.773</v>
+        <v>1.18</v>
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n">
-        <v>3.555</v>
+        <v>4.721</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.258</v>
+        <v>1.36</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n">
-        <v>0.8160000000000001</v>
+        <v>1.478</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.6919999999999999</v>
+        <v>2.601</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1711</v>
+        <v>4393</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1149</v>
+        <v>1792.07</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.724</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Запорізьке ЛВУМГ</t>
+          <t>Закарпатське ЛВУМГ</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.911</v>
+        <v>7.121</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1800</v>
+        <v>2571</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.395</v>
+        <v>0.773</v>
       </c>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n">
-        <v>2.293</v>
+        <v>3.555</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1.422</v>
+        <v>0.258</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.378</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="n">
-        <v>1.127</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1.115</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2658</v>
+        <v>1711</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>925</v>
+        <v>1149</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.175</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Запорізьке ЛВУМГ (Криворізьке)</t>
+          <t>Запорізьке ЛВУМГ</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>10.33</v>
+        <v>8.911</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="E10" s="2" t="n"/>
+        <v>1800</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1.395</v>
+      </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n">
-        <v>2.05</v>
+        <v>2.293</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.417</v>
+        <v>1.422</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.162</v>
+        <v>0.378</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n">
-        <v>1.035</v>
+        <v>1.127</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.64</v>
+        <v>1.115</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2157</v>
+        <v>2658</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1150</v>
+        <v>925</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.624</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Золотоніське ЛВУМГ</t>
+          <t>Запорізьке ЛВУМГ (Криворізьке)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>8.470000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1697</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.9199999999999999</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n">
-        <v>20.687</v>
+        <v>2.05</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.449</v>
+        <v>0.417</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>642</v>
-      </c>
+        <v>0.162</v>
+      </c>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n">
-        <v>1.269</v>
+        <v>1.035</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.876</v>
+        <v>0.64</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2495</v>
+        <v>2157</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1036</v>
+        <v>1150</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.96</v>
+        <v>2.624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Золотоніське ЛВУМГ (Барське)</t>
+          <t>Золотоніське ЛВУМГ</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>9.905000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3681</v>
+        <v>1697</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.149</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3.022</v>
-      </c>
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n">
-        <v>46.934</v>
+        <v>20.687</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1.478</v>
+        <v>0.449</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.518</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n">
-        <v>1.131</v>
+        <v>1.269</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>1.099</v>
+        <v>0.876</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2124</v>
+        <v>2495</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1460</v>
+        <v>1036</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.974999999999999</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Краматорське ЛВУМГ</t>
+          <t>Золотоніське ЛВУМГ (Барське)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.114</v>
+        <v>9.905000000000001</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3324</v>
-      </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+        <v>3681</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.022</v>
+      </c>
       <c r="G13" s="2" t="n">
-        <v>4.485</v>
+        <v>46.934</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>1.208</v>
+        <v>1.478</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J13" s="2" t="n"/>
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>612</v>
+      </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n">
-        <v>0.904</v>
+        <v>1.131</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.863</v>
+        <v>1.099</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2730</v>
+        <v>2124</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1019</v>
+        <v>1460</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.949</v>
+        <v>2.974999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Краматорське ЛВУМГ (Сєвєродонецьке)</t>
+          <t>Краматорське ЛВУМГ</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9.460000000000001</v>
+        <v>10.114</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2277</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0.067</v>
-      </c>
+        <v>3324</v>
+      </c>
+      <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n">
-        <v>3.296</v>
+        <v>4.485</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.519</v>
+        <v>1.208</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.174</v>
+        <v>0.33</v>
       </c>
       <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n">
-        <v>0.7</v>
-      </c>
+      <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n">
-        <v>0.981</v>
+        <v>0.904</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.626</v>
+        <v>0.863</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1955</v>
+        <v>2730</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>920</v>
+        <v>1019</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.368</v>
+        <v>4.949</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Кременчуцьке ЛВУМГ</t>
+          <t>Краматорське ЛВУМГ (Сєвєродонецьке)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>5.662</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1066</v>
+        <v>2277</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.391</v>
+        <v>0.067</v>
       </c>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n">
-        <v>6.476999999999999</v>
+        <v>3.296</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.115</v>
+        <v>0.519</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.482</v>
+        <v>0.174</v>
       </c>
       <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="K15" s="2" t="n">
+        <v>0.7</v>
+      </c>
       <c r="L15" s="2" t="n">
-        <v>0.434</v>
+        <v>0.981</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.6639999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1347</v>
+        <v>1955</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1113</v>
+        <v>920</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.822</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Лубенське ЛВУМГ</t>
+          <t>Кременчуцьке ЛВУМГ</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>16.756</v>
+        <v>5.662</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2475</v>
+        <v>1066</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.391</v>
+      </c>
+      <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n">
-        <v>2.613</v>
+        <v>6.476999999999999</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>3.009</v>
+        <v>0.115</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3119999999999999</v>
+        <v>0.482</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n">
-        <v>2.092</v>
+        <v>0.434</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1.622</v>
+        <v>0.6639999999999999</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2848</v>
+        <v>1347</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1262</v>
+        <v>1113</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.338</v>
+        <v>1.822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Миколаївське ЛВУМГ</t>
+          <t>Лубенське ЛВУМГ</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>16.943</v>
+        <v>16.756</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3636</v>
+        <v>2475</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F17" s="2" t="n"/>
+        <v>0.59</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="G17" s="2" t="n">
-        <v>4.725</v>
+        <v>2.613</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>1.04</v>
+        <v>3.009</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.288</v>
+        <v>0.3119999999999999</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n">
-        <v>0.8300000000000001</v>
+        <v>2.092</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>2.111</v>
+        <v>1.622</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4154</v>
+        <v>2848</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2404</v>
+        <v>1262</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.45</v>
+        <v>4.338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Миколаївське ЛВУМГ(Одеське)</t>
+          <t>Миколаївське ЛВУМГ</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>15.1</v>
+        <v>16.943</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3590</v>
+        <v>3636</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n">
-        <v>8.1</v>
+        <v>4.725</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.35</v>
+        <v>0.288</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n">
-        <v>1.25</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>1.1</v>
+        <v>2.111</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2749</v>
+        <v>4154</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1113</v>
+        <v>2404</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.18</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Сумське ЛВУМГ</t>
+          <t>Миколаївське ЛВУМГ(Одеське)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>5.616</v>
+        <v>15.1</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>898</v>
-      </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+        <v>3590</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>5.62</v>
+      </c>
       <c r="G19" s="2" t="n">
-        <v>0.898</v>
+        <v>8.1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.476</v>
+        <v>0.6</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.141</v>
+        <v>0.35</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n">
-        <v>0.527</v>
+        <v>1.25</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.878</v>
+        <v>1.1</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1289</v>
+        <v>2749</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>443</v>
+        <v>1113</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.611</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Харківське ЛВУМГ</t>
+          <t>Сумське ЛВУМГ</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>9.907</v>
+        <v>5.616</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2831</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0.175</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n">
-        <v>8.192</v>
+        <v>0.898</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.61</v>
+        <v>0.476</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.203</v>
+        <v>0.141</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>1289</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>443</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Харківське ЛВУМГ</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>9.907</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n">
+        <v>8.192</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n">
         <v>0.8070000000000001</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="M21" s="2" t="n">
         <v>0.5800000000000001</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="N21" s="2" t="n">
         <v>2199</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O21" s="2" t="n">
         <v>1041</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P21" s="2" t="n">
         <v>3.305000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Рознарядка.xlsx
+++ b/Рознарядка.xlsx
@@ -31927,7 +31927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32946,6 +32946,69 @@
         <v>3.305000000000001</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Рознарядка. Контрольна сума:</t>
+        </is>
+      </c>
+      <c r="C23">
+        <f>SUM(C3:C21)</f>
+        <v/>
+      </c>
+      <c r="D23">
+        <f>SUM(D3:D21)</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>SUM(E3:E21)</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>SUM(F3:F21)</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>SUM(G3:G21)</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>SUM(H3:H21)</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>SUM(I3:I21)</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>SUM(J3:J21)</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>SUM(K3:K21)</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>SUM(L3:L21)</f>
+        <v/>
+      </c>
+      <c r="M23">
+        <f>SUM(M3:M21)</f>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>SUM(N3:N21)</f>
+        <v/>
+      </c>
+      <c r="O23">
+        <f>SUM(O3:O21)</f>
+        <v/>
+      </c>
+      <c r="P23">
+        <f>SUM(P3:P21)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>

--- a/Рознарядка.xlsx
+++ b/Рознарядка.xlsx
@@ -279,9 +279,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,11 +291,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,6 +303,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,547 +665,547 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="16.2" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Код</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Найменування за договором</t>
         </is>
       </c>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="9" t="n"/>
+      <c r="N1" s="10" t="n"/>
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>Одиниці виміру</t>
         </is>
       </c>
-      <c r="P1" s="10" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Кількість</t>
         </is>
       </c>
-      <c r="Q1" s="10" t="n"/>
+      <c r="Q1" s="7" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="16" t="n"/>
-      <c r="O2" s="11" t="n"/>
-      <c r="P2" s="11" t="n"/>
-      <c r="Q2" s="11" t="n"/>
+      <c r="A2" s="8" t="n"/>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="8" t="n"/>
+      <c r="P2" s="8" t="n"/>
+      <c r="Q2" s="8" t="n"/>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>4121344</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>Кабель КВБбШвнг 4х1</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="8" t="n"/>
-      <c r="M3" s="8" t="n"/>
-      <c r="N3" s="9" t="n"/>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+      <c r="M3" s="15" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="2" t="n">
         <v>202.134</v>
       </c>
-      <c r="Q3" s="5" t="n"/>
+      <c r="Q3" s="4" t="n"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>4168147</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Кабель КВБбШвнг 7х1</t>
         </is>
       </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="n"/>
-      <c r="M4" s="8" t="n"/>
-      <c r="N4" s="9" t="n"/>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="15" t="n"/>
+      <c r="F4" s="15" t="n"/>
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+      <c r="L4" s="15" t="n"/>
+      <c r="M4" s="15" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="2" t="n">
         <v>50.348</v>
       </c>
-      <c r="Q4" s="5" t="n"/>
+      <c r="Q4" s="4" t="n"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>4137885</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>Кабель КВБбШвнг 10х1</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="8" t="n"/>
-      <c r="M5" s="8" t="n"/>
-      <c r="N5" s="9" t="n"/>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
+      <c r="F5" s="15" t="n"/>
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+      <c r="M5" s="15" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="2" t="n">
         <v>17.03</v>
       </c>
-      <c r="Q5" s="5" t="n"/>
+      <c r="Q5" s="4" t="n"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>4121338</v>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>Кабель КВБбШвнг 14х1</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="H6" s="8" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="n"/>
-      <c r="K6" s="8" t="n"/>
-      <c r="L6" s="8" t="n"/>
-      <c r="M6" s="8" t="n"/>
-      <c r="N6" s="9" t="n"/>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+      <c r="L6" s="15" t="n"/>
+      <c r="M6" s="15" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="5" t="n">
         <v>8.842000000000001</v>
       </c>
-      <c r="Q6" s="5" t="n"/>
+      <c r="Q6" s="4" t="n"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>4121341</v>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>Кабель КВБбШвнг 19х1</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="8" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="9" t="n"/>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n"/>
+      <c r="F7" s="15" t="n"/>
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+      <c r="M7" s="15" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="5" t="n">
         <v>135.751</v>
       </c>
-      <c r="Q7" s="5" t="n"/>
+      <c r="Q7" s="4" t="n"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>4137896</v>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>Кабель КВВГнг 4x1</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="8" t="n"/>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="8" t="n"/>
-      <c r="K8" s="8" t="n"/>
-      <c r="L8" s="8" t="n"/>
-      <c r="M8" s="8" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="D8" s="15" t="n"/>
+      <c r="E8" s="15" t="n"/>
+      <c r="F8" s="15" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+      <c r="L8" s="15" t="n"/>
+      <c r="M8" s="15" t="n"/>
+      <c r="N8" s="16" t="n"/>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="5" t="n">
         <v>18.222</v>
       </c>
-      <c r="Q8" s="5" t="n"/>
+      <c r="Q8" s="4" t="n"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>4121545</v>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>Кабель КВВГнг 19х1</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="8" t="n"/>
-      <c r="I9" s="8" t="n"/>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="15" t="n"/>
+      <c r="F9" s="15" t="n"/>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n"/>
+      <c r="M9" s="15" t="n"/>
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="2" t="n">
         <v>5.861</v>
       </c>
-      <c r="Q9" s="5" t="n"/>
+      <c r="Q9" s="4" t="n"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>4121357</v>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>Кабель КВВГ 14х1</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
-      <c r="G10" s="8" t="n"/>
-      <c r="H10" s="8" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="8" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
-      <c r="M10" s="8" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="D10" s="15" t="n"/>
+      <c r="E10" s="15" t="n"/>
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+      <c r="L10" s="15" t="n"/>
+      <c r="M10" s="15" t="n"/>
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="2" t="n">
         <v>1.254</v>
       </c>
-      <c r="Q10" s="5" t="n"/>
+      <c r="Q10" s="4" t="n"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>4120845</v>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>Кабель ВБбШв 3х6+1х4</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="H11" s="8" t="n"/>
-      <c r="I11" s="8" t="n"/>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="D11" s="15" t="n"/>
+      <c r="E11" s="15" t="n"/>
+      <c r="F11" s="15" t="n"/>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
+      <c r="M11" s="15" t="n"/>
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="5" t="n"/>
+      <c r="Q11" s="4" t="n"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>4121072</v>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>Кабель ВВГнг 3х1,5</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-      <c r="H12" s="8" t="n"/>
-      <c r="I12" s="8" t="n"/>
-      <c r="J12" s="8" t="n"/>
-      <c r="K12" s="8" t="n"/>
-      <c r="L12" s="8" t="n"/>
-      <c r="M12" s="8" t="n"/>
-      <c r="N12" s="9" t="n"/>
-      <c r="O12" s="3" t="inlineStr">
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+      <c r="L12" s="15" t="n"/>
+      <c r="M12" s="15" t="n"/>
+      <c r="N12" s="16" t="n"/>
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="2" t="n">
         <v>22.67</v>
       </c>
-      <c r="Q12" s="5" t="n"/>
+      <c r="Q12" s="4" t="n"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>4137934</v>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>Кабель МКЭКШвнг 2x2x1</t>
         </is>
       </c>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="8" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="D13" s="15" t="n"/>
+      <c r="E13" s="15" t="n"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+      <c r="M13" s="15" t="n"/>
+      <c r="N13" s="16" t="n"/>
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="2" t="n">
         <v>21.753</v>
       </c>
-      <c r="Q13" s="5" t="n"/>
+      <c r="Q13" s="4" t="n"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>4127874</v>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>Кабель сигнальний 4х0,22 екранований</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="15" t="n"/>
+      <c r="F14" s="15" t="n"/>
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+      <c r="L14" s="15" t="n"/>
+      <c r="M14" s="15" t="n"/>
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="2" t="n">
         <v>46.784</v>
       </c>
-      <c r="Q14" s="5" t="n"/>
+      <c r="Q14" s="4" t="n"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>4127875</v>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
         <is>
           <t>Кабель сигнальний 8х0,22 екранований</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n"/>
+      <c r="F15" s="15" t="n"/>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+      <c r="M15" s="15" t="n"/>
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="2" t="n">
         <v>22.13</v>
       </c>
-      <c r="Q15" s="5" t="n"/>
+      <c r="Q15" s="4" t="n"/>
     </row>
     <row r="16" ht="16.2" customHeight="1">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>4097889</v>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>Провід ПВ-3 6мм2</t>
         </is>
       </c>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="8" t="n"/>
-      <c r="J16" s="8" t="n"/>
-      <c r="K16" s="8" t="n"/>
-      <c r="L16" s="8" t="n"/>
-      <c r="M16" s="8" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="15" t="n"/>
+      <c r="F16" s="15" t="n"/>
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+      <c r="L16" s="15" t="n"/>
+      <c r="M16" s="15" t="n"/>
+      <c r="N16" s="16" t="n"/>
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="2" t="n">
         <v>67.67400000000001</v>
       </c>
-      <c r="Q16" s="5" t="n"/>
+      <c r="Q16" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C12:N12"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -31919,7 +31919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32938,192 +32938,332 @@
         <v>3.305000000000001</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Рознарядка. Сумарна кількість:</t>
         </is>
       </c>
-      <c r="C22">
+      <c r="C23" s="1">
         <f>SUM(C3:C21)</f>
         <v/>
       </c>
-      <c r="D22">
+      <c r="D23" s="1">
         <f>SUM(D3:D21)</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E23" s="1">
         <f>SUM(E3:E21)</f>
         <v/>
       </c>
-      <c r="F22">
+      <c r="F23" s="1">
         <f>SUM(F3:F21)</f>
         <v/>
       </c>
-      <c r="G22">
+      <c r="G23" s="1">
         <f>SUM(G3:G21)</f>
         <v/>
       </c>
-      <c r="H22">
+      <c r="H23" s="1">
         <f>SUM(H3:H21)</f>
         <v/>
       </c>
-      <c r="I22">
+      <c r="I23" s="1">
         <f>SUM(I3:I21)</f>
         <v/>
       </c>
-      <c r="J22">
+      <c r="J23" s="1">
         <f>SUM(J3:J21)</f>
         <v/>
       </c>
-      <c r="K22">
+      <c r="K23" s="1">
         <f>SUM(K3:K21)</f>
         <v/>
       </c>
-      <c r="L22">
+      <c r="L23" s="1">
         <f>SUM(L3:L21)</f>
         <v/>
       </c>
-      <c r="M22">
+      <c r="M23" s="1">
         <f>SUM(M3:M21)</f>
         <v/>
       </c>
-      <c r="N22">
+      <c r="N23" s="1">
         <f>SUM(N3:N21)</f>
         <v/>
       </c>
-      <c r="O22">
+      <c r="O23" s="1">
         <f>SUM(O3:O21)</f>
         <v/>
       </c>
-      <c r="P22">
+      <c r="P23" s="1">
         <f>SUM(P3:P21)</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="25">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Групування. Сумарна кількість:</t>
         </is>
       </c>
-      <c r="C24">
+      <c r="C25" s="1">
         <f>SUM(Групування!D5:D69)</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D25" s="1">
         <f>SUM(Групування!D70:D123)</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E25" s="1">
         <f>SUM(Групування!D124:D160)</f>
         <v/>
       </c>
-      <c r="F24">
+      <c r="F25" s="1">
         <f>SUM(Групування!D161:D165)</f>
         <v/>
       </c>
-      <c r="G24">
+      <c r="G25" s="1">
         <f>SUM(Групування!D166:D228)</f>
         <v/>
       </c>
-      <c r="H24">
+      <c r="H25" s="1">
         <f>SUM(Групування!D229:D271)</f>
         <v/>
       </c>
-      <c r="I24">
+      <c r="I25" s="1">
         <f>SUM(Групування!D272:D320)</f>
         <v/>
       </c>
-      <c r="J24">
+      <c r="J25" s="1">
         <f>SUM(Групування!D321:D324)</f>
         <v/>
       </c>
-      <c r="K24">
+      <c r="K25" s="1">
         <f>SUM(Групування!D325:D325)</f>
         <v/>
       </c>
-      <c r="L24">
+      <c r="L25" s="1">
         <f>SUM(Групування!D326:D391)</f>
         <v/>
       </c>
-      <c r="M24">
+      <c r="M25" s="1">
         <f>SUM(Групування!D392:D448)</f>
         <v/>
       </c>
-      <c r="N24">
+      <c r="N25" s="1">
         <f>SUM(Групування!D449:D527)</f>
         <v/>
       </c>
-      <c r="O24">
+      <c r="O25" s="1">
         <f>SUM(Групування!D528:D600)</f>
         <v/>
       </c>
-      <c r="P24">
+      <c r="P25" s="1">
         <f>SUM(Групування!D601:D680)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Групування. Одиниці виміру:</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">М </t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">М </t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+      <c r="N26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">М </t>
+        </is>
+      </c>
+      <c r="O26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">М </t>
+        </is>
+      </c>
+      <c r="P26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КМ </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Договір. Сумарна кількість:</t>
         </is>
       </c>
-      <c r="C26">
+      <c r="C28" s="1">
         <f>Договір!P3</f>
         <v/>
       </c>
-      <c r="D26">
+      <c r="D28" s="1">
         <f>Договір!P4</f>
         <v/>
       </c>
-      <c r="E26">
+      <c r="E28" s="1">
         <f>Договір!P5</f>
         <v/>
       </c>
-      <c r="F26">
+      <c r="F28" s="1">
         <f>Договір!P6</f>
         <v/>
       </c>
-      <c r="G26">
+      <c r="G28" s="1">
         <f>Договір!P7</f>
         <v/>
       </c>
-      <c r="H26">
+      <c r="H28" s="1">
         <f>Договір!P8</f>
         <v/>
       </c>
-      <c r="I26">
+      <c r="I28" s="1">
         <f>Договір!P9</f>
         <v/>
       </c>
-      <c r="J26">
+      <c r="J28" s="1">
         <f>Договір!P10</f>
         <v/>
       </c>
-      <c r="K26">
+      <c r="K28" s="1">
         <f>Договір!P11</f>
         <v/>
       </c>
-      <c r="L26">
+      <c r="L28" s="1">
         <f>Договір!P12</f>
         <v/>
       </c>
-      <c r="M26">
+      <c r="M28" s="1">
         <f>Договір!P13</f>
         <v/>
       </c>
-      <c r="N26">
+      <c r="N28" s="1">
         <f>Договір!P14</f>
         <v/>
       </c>
-      <c r="O26">
+      <c r="O28" s="1">
         <f>Договір!P15</f>
         <v/>
       </c>
-      <c r="P26">
+      <c r="P28" s="1">
         <f>Договір!P16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Договір. Одиниці виміру:</t>
+        </is>
+      </c>
+      <c r="C29" s="1">
+        <f>Договір!O3</f>
+        <v/>
+      </c>
+      <c r="D29" s="1">
+        <f>Договір!O4</f>
+        <v/>
+      </c>
+      <c r="E29" s="1">
+        <f>Договір!O5</f>
+        <v/>
+      </c>
+      <c r="F29" s="1">
+        <f>Договір!O6</f>
+        <v/>
+      </c>
+      <c r="G29" s="1">
+        <f>Договір!O7</f>
+        <v/>
+      </c>
+      <c r="H29" s="1">
+        <f>Договір!O8</f>
+        <v/>
+      </c>
+      <c r="I29" s="1">
+        <f>Договір!O9</f>
+        <v/>
+      </c>
+      <c r="J29" s="1">
+        <f>Договір!O10</f>
+        <v/>
+      </c>
+      <c r="K29" s="1">
+        <f>Договір!O11</f>
+        <v/>
+      </c>
+      <c r="L29" s="1">
+        <f>Договір!O12</f>
+        <v/>
+      </c>
+      <c r="M29" s="1">
+        <f>Договір!O13</f>
+        <v/>
+      </c>
+      <c r="N29" s="1">
+        <f>Договір!O14</f>
+        <v/>
+      </c>
+      <c r="O29" s="1">
+        <f>Договір!O15</f>
+        <v/>
+      </c>
+      <c r="P29" s="1">
+        <f>Договір!O16</f>
         <v/>
       </c>
     </row>

--- a/Рознарядка.xlsx
+++ b/Рознарядка.xlsx
@@ -32938,6 +32938,7 @@
         <v>3.305000000000001</v>
       </c>
     </row>
+    <row r="22"/>
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
@@ -33001,6 +33002,7 @@
         <v/>
       </c>
     </row>
+    <row r="24"/>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
@@ -33072,75 +33074,76 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">М </t>
+          <t>КМ</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>М</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
-        </is>
-      </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">М </t>
+          <t>КМ</t>
+        </is>
+      </c>
+      <c r="J26" s="17" t="inlineStr">
+        <is>
+          <t>М</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
+          <t>КМ</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
-        </is>
-      </c>
-      <c r="N26" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">М </t>
-        </is>
-      </c>
-      <c r="O26" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">М </t>
+          <t>КМ</t>
+        </is>
+      </c>
+      <c r="N26" s="17" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="O26" s="17" t="inlineStr">
+        <is>
+          <t>М</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">КМ </t>
-        </is>
-      </c>
-    </row>
+          <t>КМ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
